--- a/Compiladores/3-etapa/simulator_afd/tabela.xlsx
+++ b/Compiladores/3-etapa/simulator_afd/tabela.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BZ94"/>
+  <dimension ref="A1:CA94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,215 +539,220 @@
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>WY</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
           <t>Z</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>h</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>i</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>j</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>k</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>l</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>n</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>o</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>q</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>r</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>s</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>t</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>u</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>w</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>(</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>)</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>[</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>]</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>;</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>"</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>'</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>&lt;</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>=</t>
         </is>
@@ -838,6 +843,7 @@
       <c r="BX2" t="inlineStr"/>
       <c r="BY2" t="inlineStr"/>
       <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -911,10 +917,10 @@
       <c r="BK3" t="inlineStr"/>
       <c r="BL3" t="inlineStr"/>
       <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="n">
+        <v>1</v>
+      </c>
       <c r="BP3" t="inlineStr"/>
       <c r="BQ3" t="inlineStr"/>
       <c r="BR3" t="inlineStr"/>
@@ -926,6 +932,7 @@
       <c r="BX3" t="inlineStr"/>
       <c r="BY3" t="inlineStr"/>
       <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -971,10 +978,10 @@
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
@@ -1014,6 +1021,7 @@
       <c r="BX4" t="inlineStr"/>
       <c r="BY4" t="inlineStr"/>
       <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1072,10 +1080,10 @@
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="n">
+        <v>1</v>
+      </c>
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="inlineStr"/>
@@ -1102,6 +1110,7 @@
       <c r="BX5" t="inlineStr"/>
       <c r="BY5" t="inlineStr"/>
       <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1177,25 +1186,26 @@
       <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
-      <c r="BP6" t="n">
-        <v>1</v>
-      </c>
+      <c r="BP6" t="inlineStr"/>
       <c r="BQ6" t="n">
         <v>1</v>
       </c>
-      <c r="BR6" t="inlineStr"/>
-      <c r="BS6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT6" t="inlineStr"/>
+      <c r="BR6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="n">
+        <v>1</v>
+      </c>
       <c r="BU6" t="inlineStr"/>
-      <c r="BV6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="n">
+        <v>1</v>
+      </c>
       <c r="BX6" t="inlineStr"/>
       <c r="BY6" t="inlineStr"/>
       <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1258,10 +1268,10 @@
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr"/>
       <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="n">
+        <v>1</v>
+      </c>
       <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="inlineStr"/>
@@ -1284,6 +1294,7 @@
       <c r="BX7" t="inlineStr"/>
       <c r="BY7" t="inlineStr"/>
       <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1337,10 +1348,10 @@
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="n">
+        <v>1</v>
+      </c>
       <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="inlineStr"/>
@@ -1372,6 +1383,7 @@
       <c r="BX8" t="inlineStr"/>
       <c r="BY8" t="inlineStr"/>
       <c r="BZ8" t="inlineStr"/>
+      <c r="CA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1419,10 +1431,10 @@
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
+        <v>1</v>
+      </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
@@ -1460,6 +1472,7 @@
       <c r="BX9" t="inlineStr"/>
       <c r="BY9" t="inlineStr"/>
       <c r="BZ9" t="inlineStr"/>
+      <c r="CA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1546,6 +1559,7 @@
       <c r="BX10" t="inlineStr"/>
       <c r="BY10" t="inlineStr"/>
       <c r="BZ10" t="inlineStr"/>
+      <c r="CA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1605,10 +1619,10 @@
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr"/>
       <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="n">
+        <v>1</v>
+      </c>
       <c r="BB11" t="inlineStr"/>
       <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>
@@ -1634,6 +1648,7 @@
       <c r="BX11" t="inlineStr"/>
       <c r="BY11" t="inlineStr"/>
       <c r="BZ11" t="inlineStr"/>
+      <c r="CA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1697,10 +1712,10 @@
       <c r="BA12" t="inlineStr"/>
       <c r="BB12" t="inlineStr"/>
       <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="n">
+        <v>1</v>
+      </c>
       <c r="BF12" t="inlineStr"/>
       <c r="BG12" t="inlineStr"/>
       <c r="BH12" t="inlineStr"/>
@@ -1722,6 +1737,7 @@
       <c r="BX12" t="inlineStr"/>
       <c r="BY12" t="inlineStr"/>
       <c r="BZ12" t="inlineStr"/>
+      <c r="CA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1808,6 +1824,7 @@
       <c r="BX13" t="inlineStr"/>
       <c r="BY13" t="inlineStr"/>
       <c r="BZ13" t="inlineStr"/>
+      <c r="CA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1890,12 +1907,13 @@
       <c r="BT14" t="inlineStr"/>
       <c r="BU14" t="inlineStr"/>
       <c r="BV14" t="inlineStr"/>
-      <c r="BW14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX14" t="inlineStr"/>
+      <c r="BW14" t="inlineStr"/>
+      <c r="BX14" t="n">
+        <v>1</v>
+      </c>
       <c r="BY14" t="inlineStr"/>
       <c r="BZ14" t="inlineStr"/>
+      <c r="CA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1979,11 +1997,12 @@
       <c r="BU15" t="inlineStr"/>
       <c r="BV15" t="inlineStr"/>
       <c r="BW15" t="inlineStr"/>
-      <c r="BX15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY15" t="inlineStr"/>
+      <c r="BX15" t="inlineStr"/>
+      <c r="BY15" t="n">
+        <v>1</v>
+      </c>
       <c r="BZ15" t="inlineStr"/>
+      <c r="CA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2070,6 +2089,7 @@
       <c r="BX16" t="inlineStr"/>
       <c r="BY16" t="inlineStr"/>
       <c r="BZ16" t="inlineStr"/>
+      <c r="CA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2119,10 +2139,10 @@
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="n">
+        <v>1</v>
+      </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="inlineStr"/>
@@ -2158,6 +2178,7 @@
       <c r="BX17" t="inlineStr"/>
       <c r="BY17" t="inlineStr"/>
       <c r="BZ17" t="inlineStr"/>
+      <c r="CA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2243,7 +2264,8 @@
       <c r="BW18" t="inlineStr"/>
       <c r="BX18" t="inlineStr"/>
       <c r="BY18" t="inlineStr"/>
-      <c r="BZ18" t="n">
+      <c r="BZ18" t="inlineStr"/>
+      <c r="CA18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2332,6 +2354,7 @@
       <c r="BX19" t="inlineStr"/>
       <c r="BY19" t="inlineStr"/>
       <c r="BZ19" t="inlineStr"/>
+      <c r="CA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2406,10 +2429,10 @@
       <c r="BL20" t="inlineStr"/>
       <c r="BM20" t="inlineStr"/>
       <c r="BN20" t="inlineStr"/>
-      <c r="BO20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP20" t="inlineStr"/>
+      <c r="BO20" t="inlineStr"/>
+      <c r="BP20" t="n">
+        <v>1</v>
+      </c>
       <c r="BQ20" t="inlineStr"/>
       <c r="BR20" t="inlineStr"/>
       <c r="BS20" t="inlineStr"/>
@@ -2420,6 +2443,7 @@
       <c r="BX20" t="inlineStr"/>
       <c r="BY20" t="inlineStr"/>
       <c r="BZ20" t="inlineStr"/>
+      <c r="CA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2499,15 +2523,16 @@
       <c r="BQ21" t="inlineStr"/>
       <c r="BR21" t="inlineStr"/>
       <c r="BS21" t="inlineStr"/>
-      <c r="BT21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU21" t="inlineStr"/>
+      <c r="BT21" t="inlineStr"/>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
       <c r="BV21" t="inlineStr"/>
       <c r="BW21" t="inlineStr"/>
       <c r="BX21" t="inlineStr"/>
       <c r="BY21" t="inlineStr"/>
       <c r="BZ21" t="inlineStr"/>
+      <c r="CA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2585,10 +2610,10 @@
       <c r="BO22" t="inlineStr"/>
       <c r="BP22" t="inlineStr"/>
       <c r="BQ22" t="inlineStr"/>
-      <c r="BR22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
+      <c r="BS22" t="n">
+        <v>1</v>
+      </c>
       <c r="BT22" t="inlineStr"/>
       <c r="BU22" t="inlineStr"/>
       <c r="BV22" t="inlineStr"/>
@@ -2596,6 +2621,7 @@
       <c r="BX22" t="inlineStr"/>
       <c r="BY22" t="inlineStr"/>
       <c r="BZ22" t="inlineStr"/>
+      <c r="CA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2646,10 +2672,10 @@
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="n">
+        <v>1</v>
+      </c>
       <c r="AS23" t="inlineStr"/>
       <c r="AT23" t="inlineStr"/>
       <c r="AU23" t="inlineStr"/>
@@ -2684,6 +2710,7 @@
       <c r="BX23" t="inlineStr"/>
       <c r="BY23" t="inlineStr"/>
       <c r="BZ23" t="inlineStr"/>
+      <c r="CA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2768,10 +2795,11 @@
       <c r="BV24" t="inlineStr"/>
       <c r="BW24" t="inlineStr"/>
       <c r="BX24" t="inlineStr"/>
-      <c r="BY24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ24" t="inlineStr"/>
+      <c r="BY24" t="inlineStr"/>
+      <c r="BZ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2832,10 +2860,10 @@
       <c r="AX25" t="inlineStr"/>
       <c r="AY25" t="inlineStr"/>
       <c r="AZ25" t="inlineStr"/>
-      <c r="BA25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="n">
+        <v>1</v>
+      </c>
       <c r="BC25" t="inlineStr"/>
       <c r="BD25" t="inlineStr"/>
       <c r="BE25" t="inlineStr"/>
@@ -2860,6 +2888,7 @@
       <c r="BX25" t="inlineStr"/>
       <c r="BY25" t="inlineStr"/>
       <c r="BZ25" t="inlineStr"/>
+      <c r="CA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2931,10 +2960,10 @@
       <c r="BI26" t="inlineStr"/>
       <c r="BJ26" t="inlineStr"/>
       <c r="BK26" t="inlineStr"/>
-      <c r="BL26" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM26" t="inlineStr"/>
+      <c r="BL26" t="inlineStr"/>
+      <c r="BM26" t="n">
+        <v>1</v>
+      </c>
       <c r="BN26" t="inlineStr"/>
       <c r="BO26" t="inlineStr"/>
       <c r="BP26" t="inlineStr"/>
@@ -2948,6 +2977,7 @@
       <c r="BX26" t="inlineStr"/>
       <c r="BY26" t="inlineStr"/>
       <c r="BZ26" t="inlineStr"/>
+      <c r="CA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3028,14 +3058,15 @@
       <c r="BR27" t="inlineStr"/>
       <c r="BS27" t="inlineStr"/>
       <c r="BT27" t="inlineStr"/>
-      <c r="BU27" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV27" t="inlineStr"/>
+      <c r="BU27" t="inlineStr"/>
+      <c r="BV27" t="n">
+        <v>1</v>
+      </c>
       <c r="BW27" t="inlineStr"/>
       <c r="BX27" t="inlineStr"/>
       <c r="BY27" t="inlineStr"/>
       <c r="BZ27" t="inlineStr"/>
+      <c r="CA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3108,10 +3139,10 @@
       <c r="BJ28" t="inlineStr"/>
       <c r="BK28" t="inlineStr"/>
       <c r="BL28" t="inlineStr"/>
-      <c r="BM28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN28" t="inlineStr"/>
+      <c r="BM28" t="inlineStr"/>
+      <c r="BN28" t="n">
+        <v>1</v>
+      </c>
       <c r="BO28" t="inlineStr"/>
       <c r="BP28" t="inlineStr"/>
       <c r="BQ28" t="inlineStr"/>
@@ -3124,6 +3155,7 @@
       <c r="BX28" t="inlineStr"/>
       <c r="BY28" t="inlineStr"/>
       <c r="BZ28" t="inlineStr"/>
+      <c r="CA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3182,10 +3214,10 @@
       <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ29" t="inlineStr"/>
+      <c r="AY29" t="inlineStr"/>
+      <c r="AZ29" t="n">
+        <v>1</v>
+      </c>
       <c r="BA29" t="inlineStr"/>
       <c r="BB29" t="inlineStr"/>
       <c r="BC29" t="inlineStr"/>
@@ -3212,6 +3244,7 @@
       <c r="BX29" t="inlineStr"/>
       <c r="BY29" t="inlineStr"/>
       <c r="BZ29" t="inlineStr"/>
+      <c r="CA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3298,6 +3331,7 @@
       <c r="BX30" t="inlineStr"/>
       <c r="BY30" t="inlineStr"/>
       <c r="BZ30" t="inlineStr"/>
+      <c r="CA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3357,10 +3391,10 @@
       <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="inlineStr"/>
       <c r="AY31" t="inlineStr"/>
-      <c r="AZ31" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA31" t="inlineStr"/>
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="n">
+        <v>1</v>
+      </c>
       <c r="BB31" t="inlineStr"/>
       <c r="BC31" t="inlineStr"/>
       <c r="BD31" t="inlineStr"/>
@@ -3386,6 +3420,7 @@
       <c r="BX31" t="inlineStr"/>
       <c r="BY31" t="inlineStr"/>
       <c r="BZ31" t="inlineStr"/>
+      <c r="CA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3435,10 +3470,10 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="n">
+        <v>1</v>
+      </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
       <c r="AT32" t="inlineStr"/>
@@ -3474,6 +3509,7 @@
       <c r="BX32" t="inlineStr"/>
       <c r="BY32" t="inlineStr"/>
       <c r="BZ32" t="inlineStr"/>
+      <c r="CA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3532,10 +3568,10 @@
       <c r="AV33" t="inlineStr"/>
       <c r="AW33" t="inlineStr"/>
       <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ33" t="inlineStr"/>
+      <c r="AY33" t="inlineStr"/>
+      <c r="AZ33" t="n">
+        <v>1</v>
+      </c>
       <c r="BA33" t="inlineStr"/>
       <c r="BB33" t="inlineStr"/>
       <c r="BC33" t="inlineStr"/>
@@ -3562,6 +3598,7 @@
       <c r="BX33" t="inlineStr"/>
       <c r="BY33" t="inlineStr"/>
       <c r="BZ33" t="inlineStr"/>
+      <c r="CA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3614,10 +3651,10 @@
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="n">
+        <v>1</v>
+      </c>
       <c r="AU34" t="inlineStr"/>
       <c r="AV34" t="inlineStr"/>
       <c r="AW34" t="inlineStr"/>
@@ -3650,6 +3687,7 @@
       <c r="BX34" t="inlineStr"/>
       <c r="BY34" t="inlineStr"/>
       <c r="BZ34" t="inlineStr"/>
+      <c r="CA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3736,6 +3774,7 @@
       <c r="BX35" t="inlineStr"/>
       <c r="BY35" t="inlineStr"/>
       <c r="BZ35" t="inlineStr"/>
+      <c r="CA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3798,10 +3837,10 @@
       <c r="AZ36" t="inlineStr"/>
       <c r="BA36" t="inlineStr"/>
       <c r="BB36" t="inlineStr"/>
-      <c r="BC36" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr"/>
+      <c r="BD36" t="n">
+        <v>1</v>
+      </c>
       <c r="BE36" t="inlineStr"/>
       <c r="BF36" t="inlineStr"/>
       <c r="BG36" t="inlineStr"/>
@@ -3824,6 +3863,7 @@
       <c r="BX36" t="inlineStr"/>
       <c r="BY36" t="inlineStr"/>
       <c r="BZ36" t="inlineStr"/>
+      <c r="CA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3873,10 +3913,10 @@
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="n">
+        <v>1</v>
+      </c>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
       <c r="AT37" t="inlineStr"/>
@@ -3912,6 +3952,7 @@
       <c r="BX37" t="inlineStr"/>
       <c r="BY37" t="inlineStr"/>
       <c r="BZ37" t="inlineStr"/>
+      <c r="CA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3998,6 +4039,7 @@
       <c r="BX38" t="inlineStr"/>
       <c r="BY38" t="inlineStr"/>
       <c r="BZ38" t="inlineStr"/>
+      <c r="CA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4083,7 +4125,8 @@
       <c r="BW39" t="inlineStr"/>
       <c r="BX39" t="inlineStr"/>
       <c r="BY39" t="inlineStr"/>
-      <c r="BZ39" t="n">
+      <c r="BZ39" t="inlineStr"/>
+      <c r="CA39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4170,10 +4213,11 @@
       <c r="BV40" t="inlineStr"/>
       <c r="BW40" t="inlineStr"/>
       <c r="BX40" t="inlineStr"/>
-      <c r="BY40" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ40" t="inlineStr"/>
+      <c r="BY40" t="inlineStr"/>
+      <c r="BZ40" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4260,6 +4304,7 @@
       <c r="BX41" t="inlineStr"/>
       <c r="BY41" t="inlineStr"/>
       <c r="BZ41" t="inlineStr"/>
+      <c r="CA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4318,10 +4363,10 @@
       <c r="AV42" t="inlineStr"/>
       <c r="AW42" t="inlineStr"/>
       <c r="AX42" t="inlineStr"/>
-      <c r="AY42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ42" t="inlineStr"/>
+      <c r="AY42" t="inlineStr"/>
+      <c r="AZ42" t="n">
+        <v>1</v>
+      </c>
       <c r="BA42" t="inlineStr"/>
       <c r="BB42" t="inlineStr"/>
       <c r="BC42" t="inlineStr"/>
@@ -4348,6 +4393,7 @@
       <c r="BX42" t="inlineStr"/>
       <c r="BY42" t="inlineStr"/>
       <c r="BZ42" t="inlineStr"/>
+      <c r="CA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4434,6 +4480,7 @@
       <c r="BX43" t="inlineStr"/>
       <c r="BY43" t="inlineStr"/>
       <c r="BZ43" t="inlineStr"/>
+      <c r="CA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4479,10 +4526,10 @@
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
       <c r="AK44" t="inlineStr"/>
-      <c r="AL44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="n">
+        <v>1</v>
+      </c>
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="inlineStr"/>
@@ -4522,6 +4569,7 @@
       <c r="BX44" t="inlineStr"/>
       <c r="BY44" t="inlineStr"/>
       <c r="BZ44" t="inlineStr"/>
+      <c r="CA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4575,10 +4623,10 @@
       <c r="AQ45" t="inlineStr"/>
       <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr"/>
-      <c r="AT45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU45" t="inlineStr"/>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AU45" t="n">
+        <v>1</v>
+      </c>
       <c r="AV45" t="inlineStr"/>
       <c r="AW45" t="inlineStr"/>
       <c r="AX45" t="inlineStr"/>
@@ -4610,6 +4658,7 @@
       <c r="BX45" t="inlineStr"/>
       <c r="BY45" t="inlineStr"/>
       <c r="BZ45" t="inlineStr"/>
+      <c r="CA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -4655,10 +4704,10 @@
       <c r="AI46" t="inlineStr"/>
       <c r="AJ46" t="inlineStr"/>
       <c r="AK46" t="inlineStr"/>
-      <c r="AL46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="n">
+        <v>1</v>
+      </c>
       <c r="AN46" t="inlineStr"/>
       <c r="AO46" t="inlineStr"/>
       <c r="AP46" t="inlineStr"/>
@@ -4698,6 +4747,7 @@
       <c r="BX46" t="inlineStr"/>
       <c r="BY46" t="inlineStr"/>
       <c r="BZ46" t="inlineStr"/>
+      <c r="CA46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -4760,10 +4810,10 @@
       <c r="AZ47" t="inlineStr"/>
       <c r="BA47" t="inlineStr"/>
       <c r="BB47" t="inlineStr"/>
-      <c r="BC47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD47" t="inlineStr"/>
+      <c r="BC47" t="inlineStr"/>
+      <c r="BD47" t="n">
+        <v>1</v>
+      </c>
       <c r="BE47" t="inlineStr"/>
       <c r="BF47" t="inlineStr"/>
       <c r="BG47" t="inlineStr"/>
@@ -4786,6 +4836,7 @@
       <c r="BX47" t="inlineStr"/>
       <c r="BY47" t="inlineStr"/>
       <c r="BZ47" t="inlineStr"/>
+      <c r="CA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -4834,10 +4885,10 @@
       <c r="AL48" t="inlineStr"/>
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr"/>
-      <c r="AO48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP48" t="inlineStr"/>
+      <c r="AO48" t="inlineStr"/>
+      <c r="AP48" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ48" t="inlineStr"/>
       <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr"/>
@@ -4874,6 +4925,7 @@
       <c r="BX48" t="inlineStr"/>
       <c r="BY48" t="inlineStr"/>
       <c r="BZ48" t="inlineStr"/>
+      <c r="CA48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -4960,6 +5012,7 @@
       <c r="BX49" t="inlineStr"/>
       <c r="BY49" t="inlineStr"/>
       <c r="BZ49" t="inlineStr"/>
+      <c r="CA49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5024,10 +5077,10 @@
       <c r="BB50" t="inlineStr"/>
       <c r="BC50" t="inlineStr"/>
       <c r="BD50" t="inlineStr"/>
-      <c r="BE50" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF50" t="inlineStr"/>
+      <c r="BE50" t="inlineStr"/>
+      <c r="BF50" t="n">
+        <v>1</v>
+      </c>
       <c r="BG50" t="inlineStr"/>
       <c r="BH50" t="inlineStr"/>
       <c r="BI50" t="inlineStr"/>
@@ -5048,6 +5101,7 @@
       <c r="BX50" t="inlineStr"/>
       <c r="BY50" t="inlineStr"/>
       <c r="BZ50" t="inlineStr"/>
+      <c r="CA50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5093,10 +5147,10 @@
       <c r="AI51" t="inlineStr"/>
       <c r="AJ51" t="inlineStr"/>
       <c r="AK51" t="inlineStr"/>
-      <c r="AL51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="n">
+        <v>1</v>
+      </c>
       <c r="AN51" t="inlineStr"/>
       <c r="AO51" t="inlineStr"/>
       <c r="AP51" t="inlineStr"/>
@@ -5136,6 +5190,7 @@
       <c r="BX51" t="inlineStr"/>
       <c r="BY51" t="inlineStr"/>
       <c r="BZ51" t="inlineStr"/>
+      <c r="CA51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5200,10 +5255,10 @@
       <c r="BB52" t="inlineStr"/>
       <c r="BC52" t="inlineStr"/>
       <c r="BD52" t="inlineStr"/>
-      <c r="BE52" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF52" t="inlineStr"/>
+      <c r="BE52" t="inlineStr"/>
+      <c r="BF52" t="n">
+        <v>1</v>
+      </c>
       <c r="BG52" t="inlineStr"/>
       <c r="BH52" t="inlineStr"/>
       <c r="BI52" t="inlineStr"/>
@@ -5224,6 +5279,7 @@
       <c r="BX52" t="inlineStr"/>
       <c r="BY52" t="inlineStr"/>
       <c r="BZ52" t="inlineStr"/>
+      <c r="CA52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -5282,10 +5338,10 @@
       <c r="AV53" t="inlineStr"/>
       <c r="AW53" t="inlineStr"/>
       <c r="AX53" t="inlineStr"/>
-      <c r="AY53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ53" t="inlineStr"/>
+      <c r="AY53" t="inlineStr"/>
+      <c r="AZ53" t="n">
+        <v>1</v>
+      </c>
       <c r="BA53" t="inlineStr"/>
       <c r="BB53" t="inlineStr"/>
       <c r="BC53" t="inlineStr"/>
@@ -5312,6 +5368,7 @@
       <c r="BX53" t="inlineStr"/>
       <c r="BY53" t="inlineStr"/>
       <c r="BZ53" t="inlineStr"/>
+      <c r="CA53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5357,10 +5414,10 @@
       <c r="AI54" t="inlineStr"/>
       <c r="AJ54" t="inlineStr"/>
       <c r="AK54" t="inlineStr"/>
-      <c r="AL54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="n">
+        <v>1</v>
+      </c>
       <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="inlineStr"/>
@@ -5400,6 +5457,7 @@
       <c r="BX54" t="inlineStr"/>
       <c r="BY54" t="inlineStr"/>
       <c r="BZ54" t="inlineStr"/>
+      <c r="CA54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5486,6 +5544,7 @@
       <c r="BX55" t="inlineStr"/>
       <c r="BY55" t="inlineStr"/>
       <c r="BZ55" t="inlineStr"/>
+      <c r="CA55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5572,6 +5631,7 @@
       <c r="BX56" t="inlineStr"/>
       <c r="BY56" t="inlineStr"/>
       <c r="BZ56" t="inlineStr"/>
+      <c r="CA56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -5636,10 +5696,10 @@
       <c r="BB57" t="inlineStr"/>
       <c r="BC57" t="inlineStr"/>
       <c r="BD57" t="inlineStr"/>
-      <c r="BE57" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF57" t="inlineStr"/>
+      <c r="BE57" t="inlineStr"/>
+      <c r="BF57" t="n">
+        <v>1</v>
+      </c>
       <c r="BG57" t="inlineStr"/>
       <c r="BH57" t="inlineStr"/>
       <c r="BI57" t="inlineStr"/>
@@ -5660,6 +5720,7 @@
       <c r="BX57" t="inlineStr"/>
       <c r="BY57" t="inlineStr"/>
       <c r="BZ57" t="inlineStr"/>
+      <c r="CA57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -5721,10 +5782,10 @@
       <c r="AY58" t="inlineStr"/>
       <c r="AZ58" t="inlineStr"/>
       <c r="BA58" t="inlineStr"/>
-      <c r="BB58" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC58" t="inlineStr"/>
+      <c r="BB58" t="inlineStr"/>
+      <c r="BC58" t="n">
+        <v>1</v>
+      </c>
       <c r="BD58" t="inlineStr"/>
       <c r="BE58" t="inlineStr"/>
       <c r="BF58" t="inlineStr"/>
@@ -5748,6 +5809,7 @@
       <c r="BX58" t="inlineStr"/>
       <c r="BY58" t="inlineStr"/>
       <c r="BZ58" t="inlineStr"/>
+      <c r="CA58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -5834,6 +5896,7 @@
       <c r="BX59" t="inlineStr"/>
       <c r="BY59" t="inlineStr"/>
       <c r="BZ59" t="inlineStr"/>
+      <c r="CA59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -5881,10 +5944,10 @@
       <c r="AK60" t="inlineStr"/>
       <c r="AL60" t="inlineStr"/>
       <c r="AM60" t="inlineStr"/>
-      <c r="AN60" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr"/>
+      <c r="AO60" t="n">
+        <v>1</v>
+      </c>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
       <c r="AR60" t="inlineStr"/>
@@ -5922,6 +5985,7 @@
       <c r="BX60" t="inlineStr"/>
       <c r="BY60" t="inlineStr"/>
       <c r="BZ60" t="inlineStr"/>
+      <c r="CA60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -5979,10 +6043,10 @@
       <c r="AU61" t="inlineStr"/>
       <c r="AV61" t="inlineStr"/>
       <c r="AW61" t="inlineStr"/>
-      <c r="AX61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY61" t="inlineStr"/>
+      <c r="AX61" t="inlineStr"/>
+      <c r="AY61" t="n">
+        <v>1</v>
+      </c>
       <c r="AZ61" t="inlineStr"/>
       <c r="BA61" t="inlineStr"/>
       <c r="BB61" t="inlineStr"/>
@@ -6010,6 +6074,7 @@
       <c r="BX61" t="inlineStr"/>
       <c r="BY61" t="inlineStr"/>
       <c r="BZ61" t="inlineStr"/>
+      <c r="CA61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -6072,10 +6137,10 @@
       <c r="AZ62" t="inlineStr"/>
       <c r="BA62" t="inlineStr"/>
       <c r="BB62" t="inlineStr"/>
-      <c r="BC62" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD62" t="inlineStr"/>
+      <c r="BC62" t="inlineStr"/>
+      <c r="BD62" t="n">
+        <v>1</v>
+      </c>
       <c r="BE62" t="inlineStr"/>
       <c r="BF62" t="inlineStr"/>
       <c r="BG62" t="inlineStr"/>
@@ -6098,6 +6163,7 @@
       <c r="BX62" t="inlineStr"/>
       <c r="BY62" t="inlineStr"/>
       <c r="BZ62" t="inlineStr"/>
+      <c r="CA62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -6157,10 +6223,10 @@
       <c r="AW63" t="inlineStr"/>
       <c r="AX63" t="inlineStr"/>
       <c r="AY63" t="inlineStr"/>
-      <c r="AZ63" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA63" t="inlineStr"/>
+      <c r="AZ63" t="inlineStr"/>
+      <c r="BA63" t="n">
+        <v>1</v>
+      </c>
       <c r="BB63" t="inlineStr"/>
       <c r="BC63" t="inlineStr"/>
       <c r="BD63" t="inlineStr"/>
@@ -6186,6 +6252,7 @@
       <c r="BX63" t="inlineStr"/>
       <c r="BY63" t="inlineStr"/>
       <c r="BZ63" t="inlineStr"/>
+      <c r="CA63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6272,6 +6339,7 @@
       <c r="BX64" t="inlineStr"/>
       <c r="BY64" t="inlineStr"/>
       <c r="BZ64" t="inlineStr"/>
+      <c r="CA64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -6328,10 +6396,10 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AU65" t="inlineStr"/>
       <c r="AV65" t="inlineStr"/>
-      <c r="AW65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr"/>
+      <c r="AX65" t="n">
+        <v>1</v>
+      </c>
       <c r="AY65" t="inlineStr"/>
       <c r="AZ65" t="inlineStr"/>
       <c r="BA65" t="inlineStr"/>
@@ -6360,6 +6428,7 @@
       <c r="BX65" t="inlineStr"/>
       <c r="BY65" t="inlineStr"/>
       <c r="BZ65" t="inlineStr"/>
+      <c r="CA65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -6407,10 +6476,10 @@
       <c r="AK66" t="inlineStr"/>
       <c r="AL66" t="inlineStr"/>
       <c r="AM66" t="inlineStr"/>
-      <c r="AN66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr"/>
+      <c r="AO66" t="n">
+        <v>1</v>
+      </c>
       <c r="AP66" t="inlineStr"/>
       <c r="AQ66" t="inlineStr"/>
       <c r="AR66" t="inlineStr"/>
@@ -6448,6 +6517,7 @@
       <c r="BX66" t="inlineStr"/>
       <c r="BY66" t="inlineStr"/>
       <c r="BZ66" t="inlineStr"/>
+      <c r="CA66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -6510,10 +6580,10 @@
       <c r="AZ67" t="inlineStr"/>
       <c r="BA67" t="inlineStr"/>
       <c r="BB67" t="inlineStr"/>
-      <c r="BC67" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD67" t="inlineStr"/>
+      <c r="BC67" t="inlineStr"/>
+      <c r="BD67" t="n">
+        <v>1</v>
+      </c>
       <c r="BE67" t="inlineStr"/>
       <c r="BF67" t="inlineStr"/>
       <c r="BG67" t="inlineStr"/>
@@ -6536,6 +6606,7 @@
       <c r="BX67" t="inlineStr"/>
       <c r="BY67" t="inlineStr"/>
       <c r="BZ67" t="inlineStr"/>
+      <c r="CA67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -6622,6 +6693,7 @@
       <c r="BX68" t="inlineStr"/>
       <c r="BY68" t="inlineStr"/>
       <c r="BZ68" t="inlineStr"/>
+      <c r="CA68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -6708,6 +6780,7 @@
       <c r="BX69" t="inlineStr"/>
       <c r="BY69" t="inlineStr"/>
       <c r="BZ69" t="inlineStr"/>
+      <c r="CA69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -6753,10 +6826,10 @@
       <c r="AI70" t="inlineStr"/>
       <c r="AJ70" t="inlineStr"/>
       <c r="AK70" t="inlineStr"/>
-      <c r="AL70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM70" t="inlineStr"/>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="n">
+        <v>1</v>
+      </c>
       <c r="AN70" t="inlineStr"/>
       <c r="AO70" t="inlineStr"/>
       <c r="AP70" t="inlineStr"/>
@@ -6796,6 +6869,7 @@
       <c r="BX70" t="inlineStr"/>
       <c r="BY70" t="inlineStr"/>
       <c r="BZ70" t="inlineStr"/>
+      <c r="CA70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -6861,10 +6935,10 @@
       <c r="BC71" t="inlineStr"/>
       <c r="BD71" t="inlineStr"/>
       <c r="BE71" t="inlineStr"/>
-      <c r="BF71" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG71" t="inlineStr"/>
+      <c r="BF71" t="inlineStr"/>
+      <c r="BG71" t="n">
+        <v>1</v>
+      </c>
       <c r="BH71" t="inlineStr"/>
       <c r="BI71" t="inlineStr"/>
       <c r="BJ71" t="inlineStr"/>
@@ -6884,6 +6958,7 @@
       <c r="BX71" t="inlineStr"/>
       <c r="BY71" t="inlineStr"/>
       <c r="BZ71" t="inlineStr"/>
+      <c r="CA71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -6929,10 +7004,10 @@
       <c r="AI72" t="inlineStr"/>
       <c r="AJ72" t="inlineStr"/>
       <c r="AK72" t="inlineStr"/>
-      <c r="AL72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM72" t="inlineStr"/>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="n">
+        <v>1</v>
+      </c>
       <c r="AN72" t="inlineStr"/>
       <c r="AO72" t="inlineStr"/>
       <c r="AP72" t="inlineStr"/>
@@ -6972,6 +7047,7 @@
       <c r="BX72" t="inlineStr"/>
       <c r="BY72" t="inlineStr"/>
       <c r="BZ72" t="inlineStr"/>
+      <c r="CA72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -7017,10 +7093,10 @@
       <c r="AI73" t="inlineStr"/>
       <c r="AJ73" t="inlineStr"/>
       <c r="AK73" t="inlineStr"/>
-      <c r="AL73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="n">
+        <v>1</v>
+      </c>
       <c r="AN73" t="inlineStr"/>
       <c r="AO73" t="inlineStr"/>
       <c r="AP73" t="inlineStr"/>
@@ -7060,6 +7136,7 @@
       <c r="BX73" t="inlineStr"/>
       <c r="BY73" t="inlineStr"/>
       <c r="BZ73" t="inlineStr"/>
+      <c r="CA73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -7111,10 +7188,10 @@
       <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="inlineStr"/>
       <c r="AQ74" t="inlineStr"/>
-      <c r="AR74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS74" t="inlineStr"/>
+      <c r="AR74" t="inlineStr"/>
+      <c r="AS74" t="n">
+        <v>1</v>
+      </c>
       <c r="AT74" t="inlineStr"/>
       <c r="AU74" t="inlineStr"/>
       <c r="AV74" t="inlineStr"/>
@@ -7148,6 +7225,7 @@
       <c r="BX74" t="inlineStr"/>
       <c r="BY74" t="inlineStr"/>
       <c r="BZ74" t="inlineStr"/>
+      <c r="CA74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -7201,10 +7279,10 @@
       <c r="AQ75" t="inlineStr"/>
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>
-      <c r="AT75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU75" t="inlineStr"/>
+      <c r="AT75" t="inlineStr"/>
+      <c r="AU75" t="n">
+        <v>1</v>
+      </c>
       <c r="AV75" t="inlineStr"/>
       <c r="AW75" t="inlineStr"/>
       <c r="AX75" t="inlineStr"/>
@@ -7236,6 +7314,7 @@
       <c r="BX75" t="inlineStr"/>
       <c r="BY75" t="inlineStr"/>
       <c r="BZ75" t="inlineStr"/>
+      <c r="CA75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -7322,6 +7401,7 @@
       <c r="BX76" t="inlineStr"/>
       <c r="BY76" t="inlineStr"/>
       <c r="BZ76" t="inlineStr"/>
+      <c r="CA76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -7408,6 +7488,7 @@
       <c r="BX77" t="inlineStr"/>
       <c r="BY77" t="inlineStr"/>
       <c r="BZ77" t="inlineStr"/>
+      <c r="CA77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -7467,10 +7548,10 @@
       <c r="AW78" t="inlineStr"/>
       <c r="AX78" t="inlineStr"/>
       <c r="AY78" t="inlineStr"/>
-      <c r="AZ78" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA78" t="inlineStr"/>
+      <c r="AZ78" t="inlineStr"/>
+      <c r="BA78" t="n">
+        <v>1</v>
+      </c>
       <c r="BB78" t="inlineStr"/>
       <c r="BC78" t="inlineStr"/>
       <c r="BD78" t="inlineStr"/>
@@ -7496,6 +7577,7 @@
       <c r="BX78" t="inlineStr"/>
       <c r="BY78" t="inlineStr"/>
       <c r="BZ78" t="inlineStr"/>
+      <c r="CA78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -7541,10 +7623,10 @@
       <c r="AI79" t="inlineStr"/>
       <c r="AJ79" t="inlineStr"/>
       <c r="AK79" t="inlineStr"/>
-      <c r="AL79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM79" t="inlineStr"/>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="n">
+        <v>1</v>
+      </c>
       <c r="AN79" t="inlineStr"/>
       <c r="AO79" t="inlineStr"/>
       <c r="AP79" t="inlineStr"/>
@@ -7584,6 +7666,7 @@
       <c r="BX79" t="inlineStr"/>
       <c r="BY79" t="inlineStr"/>
       <c r="BZ79" t="inlineStr"/>
+      <c r="CA79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -7646,10 +7729,10 @@
       <c r="AZ80" t="inlineStr"/>
       <c r="BA80" t="inlineStr"/>
       <c r="BB80" t="inlineStr"/>
-      <c r="BC80" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD80" t="inlineStr"/>
+      <c r="BC80" t="inlineStr"/>
+      <c r="BD80" t="n">
+        <v>1</v>
+      </c>
       <c r="BE80" t="inlineStr"/>
       <c r="BF80" t="inlineStr"/>
       <c r="BG80" t="inlineStr"/>
@@ -7672,6 +7755,7 @@
       <c r="BX80" t="inlineStr"/>
       <c r="BY80" t="inlineStr"/>
       <c r="BZ80" t="inlineStr"/>
+      <c r="CA80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -7731,10 +7815,10 @@
       <c r="AW81" t="inlineStr"/>
       <c r="AX81" t="inlineStr"/>
       <c r="AY81" t="inlineStr"/>
-      <c r="AZ81" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA81" t="inlineStr"/>
+      <c r="AZ81" t="inlineStr"/>
+      <c r="BA81" t="n">
+        <v>1</v>
+      </c>
       <c r="BB81" t="inlineStr"/>
       <c r="BC81" t="inlineStr"/>
       <c r="BD81" t="inlineStr"/>
@@ -7760,6 +7844,7 @@
       <c r="BX81" t="inlineStr"/>
       <c r="BY81" t="inlineStr"/>
       <c r="BZ81" t="inlineStr"/>
+      <c r="CA81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -7846,6 +7931,7 @@
       <c r="BX82" t="inlineStr"/>
       <c r="BY82" t="inlineStr"/>
       <c r="BZ82" t="inlineStr"/>
+      <c r="CA82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -7904,10 +7990,10 @@
       <c r="AV83" t="inlineStr"/>
       <c r="AW83" t="inlineStr"/>
       <c r="AX83" t="inlineStr"/>
-      <c r="AY83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ83" t="inlineStr"/>
+      <c r="AY83" t="inlineStr"/>
+      <c r="AZ83" t="n">
+        <v>1</v>
+      </c>
       <c r="BA83" t="inlineStr"/>
       <c r="BB83" t="inlineStr"/>
       <c r="BC83" t="inlineStr"/>
@@ -7934,6 +8020,7 @@
       <c r="BX83" t="inlineStr"/>
       <c r="BY83" t="inlineStr"/>
       <c r="BZ83" t="inlineStr"/>
+      <c r="CA83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -7979,10 +8066,10 @@
       <c r="AI84" t="inlineStr"/>
       <c r="AJ84" t="inlineStr"/>
       <c r="AK84" t="inlineStr"/>
-      <c r="AL84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM84" t="inlineStr"/>
+      <c r="AL84" t="inlineStr"/>
+      <c r="AM84" t="n">
+        <v>1</v>
+      </c>
       <c r="AN84" t="inlineStr"/>
       <c r="AO84" t="inlineStr"/>
       <c r="AP84" t="inlineStr"/>
@@ -8022,6 +8109,7 @@
       <c r="BX84" t="inlineStr"/>
       <c r="BY84" t="inlineStr"/>
       <c r="BZ84" t="inlineStr"/>
+      <c r="CA84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -8108,6 +8196,7 @@
       <c r="BX85" t="inlineStr"/>
       <c r="BY85" t="inlineStr"/>
       <c r="BZ85" t="inlineStr"/>
+      <c r="CA85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -8172,10 +8261,10 @@
       <c r="BB86" t="inlineStr"/>
       <c r="BC86" t="inlineStr"/>
       <c r="BD86" t="inlineStr"/>
-      <c r="BE86" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF86" t="inlineStr"/>
+      <c r="BE86" t="inlineStr"/>
+      <c r="BF86" t="n">
+        <v>1</v>
+      </c>
       <c r="BG86" t="inlineStr"/>
       <c r="BH86" t="inlineStr"/>
       <c r="BI86" t="inlineStr"/>
@@ -8196,6 +8285,7 @@
       <c r="BX86" t="inlineStr"/>
       <c r="BY86" t="inlineStr"/>
       <c r="BZ86" t="inlineStr"/>
+      <c r="CA86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -8253,10 +8343,10 @@
       <c r="AU87" t="inlineStr"/>
       <c r="AV87" t="inlineStr"/>
       <c r="AW87" t="inlineStr"/>
-      <c r="AX87" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY87" t="inlineStr"/>
+      <c r="AX87" t="inlineStr"/>
+      <c r="AY87" t="n">
+        <v>1</v>
+      </c>
       <c r="AZ87" t="inlineStr"/>
       <c r="BA87" t="inlineStr"/>
       <c r="BB87" t="inlineStr"/>
@@ -8284,6 +8374,7 @@
       <c r="BX87" t="inlineStr"/>
       <c r="BY87" t="inlineStr"/>
       <c r="BZ87" t="inlineStr"/>
+      <c r="CA87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -8370,6 +8461,7 @@
       <c r="BX88" t="inlineStr"/>
       <c r="BY88" t="inlineStr"/>
       <c r="BZ88" t="inlineStr"/>
+      <c r="CA88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -8429,10 +8521,10 @@
       <c r="AW89" t="inlineStr"/>
       <c r="AX89" t="inlineStr"/>
       <c r="AY89" t="inlineStr"/>
-      <c r="AZ89" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA89" t="inlineStr"/>
+      <c r="AZ89" t="inlineStr"/>
+      <c r="BA89" t="n">
+        <v>1</v>
+      </c>
       <c r="BB89" t="inlineStr"/>
       <c r="BC89" t="inlineStr"/>
       <c r="BD89" t="inlineStr"/>
@@ -8458,6 +8550,7 @@
       <c r="BX89" t="inlineStr"/>
       <c r="BY89" t="inlineStr"/>
       <c r="BZ89" t="inlineStr"/>
+      <c r="CA89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -8503,10 +8596,10 @@
       <c r="AI90" t="inlineStr"/>
       <c r="AJ90" t="inlineStr"/>
       <c r="AK90" t="inlineStr"/>
-      <c r="AL90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM90" t="inlineStr"/>
+      <c r="AL90" t="inlineStr"/>
+      <c r="AM90" t="n">
+        <v>1</v>
+      </c>
       <c r="AN90" t="inlineStr"/>
       <c r="AO90" t="inlineStr"/>
       <c r="AP90" t="inlineStr"/>
@@ -8546,6 +8639,7 @@
       <c r="BX90" t="inlineStr"/>
       <c r="BY90" t="inlineStr"/>
       <c r="BZ90" t="inlineStr"/>
+      <c r="CA90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -8632,6 +8726,7 @@
       <c r="BX91" t="inlineStr"/>
       <c r="BY91" t="inlineStr"/>
       <c r="BZ91" t="inlineStr"/>
+      <c r="CA91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -8718,6 +8813,7 @@
       <c r="BX92" t="inlineStr"/>
       <c r="BY92" t="inlineStr"/>
       <c r="BZ92" t="inlineStr"/>
+      <c r="CA92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -8956,6 +9052,9 @@
       <c r="BZ93" t="n">
         <v>1</v>
       </c>
+      <c r="CA93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -9192,6 +9291,9 @@
         <v>1</v>
       </c>
       <c r="BZ94" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA94" t="n">
         <v>1</v>
       </c>
     </row>
